--- a/00_kadai/01_企画書.xlsx
+++ b/00_kadai/01_企画書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_hyper\00_kadai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2024-12\workspace\hyperrobot\00_kadai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3FC18E-8C85-4F0A-9051-107C48338B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E3EF50-7751-4AFA-A4D2-BE4018208CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="960" windowWidth="20220" windowHeight="11805" activeTab="4" xr2:uid="{C6898F52-9006-42A0-BE11-082D8D4D7797}"/>
+    <workbookView xWindow="1635" yWindow="1305" windowWidth="20220" windowHeight="11805" xr2:uid="{C6898F52-9006-42A0-BE11-082D8D4D7797}"/>
   </bookViews>
   <sheets>
     <sheet name="0404行動" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="140">
   <si>
     <t>　メールアドレスは会社が準備してくれたものを利用。</t>
     <rPh sb="9" eb="11">
@@ -1812,6 +1812,37 @@
   </si>
   <si>
     <t>リモートリポジトリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15:00-17:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装（フロントエンド）と設計を同時に行う。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17:00-18:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>報告書まとめ、GitHubへPush、メール</t>
+    <rPh sb="0" eb="3">
+      <t>ホウコクショ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2501,9 +2532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1E0D6F-961B-482F-8120-44C0462CFE49}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2537,6 +2566,22 @@
       </c>
       <c r="B4" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -3174,7 +3219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBE9260-C68F-4B70-9B02-0358F21F1212}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
